--- a/TQR_Pckg.xlsx
+++ b/TQR_Pckg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Documents\GitHub\TestAtif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E21DED5-CC98-4177-84B2-565143F59BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A9269-58D6-4572-9528-6B5B8038D29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
